--- a/Calliope_Kenya/Models/4Nodes_No-Coffee/Graph_inputs.xlsx
+++ b/Calliope_Kenya/Models/4Nodes_No-Coffee/Graph_inputs.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\GitHub\My Kenya\Kenya Model\Models\without coffee\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\GitHub\My Kenya\Calliope_Kenya\Models\4Nodes_No-Coffee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4441A5D7-52FA-41B0-B32D-113BD0BA022F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571651C4-2520-4385-A5B7-1A9E16D5D0DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3330" yWindow="3330" windowWidth="20460" windowHeight="10890" activeTab="5" xr2:uid="{9FB00E9D-CEB3-42BA-85F0-61134DCC4F6B}"/>
+    <workbookView xWindow="18045" yWindow="4005" windowWidth="20460" windowHeight="10890" activeTab="2" xr2:uid="{9FB00E9D-CEB3-42BA-85F0-61134DCC4F6B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Demand Technology" sheetId="1" r:id="rId1"/>
+    <sheet name="Consumption Techs" sheetId="1" r:id="rId1"/>
     <sheet name="Nodes" sheetId="2" r:id="rId2"/>
-    <sheet name="PPs" sheetId="3" r:id="rId3"/>
+    <sheet name="Production Techs" sheetId="3" r:id="rId3"/>
     <sheet name="Colors" sheetId="6" r:id="rId4"/>
     <sheet name="Transmission" sheetId="4" r:id="rId5"/>
     <sheet name="Date" sheetId="5" r:id="rId6"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
   <si>
     <t>Tech</t>
   </si>
@@ -237,6 +237,9 @@
   </si>
   <si>
     <t>2015-12-31 23:00:00'</t>
+  </si>
+  <si>
+    <t>f</t>
   </si>
 </sst>
 </file>
@@ -610,7 +613,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F85C9D0-FA2D-4848-A36A-6ADC242E166E}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -985,7 +988,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BACE794-9AA3-4644-BC5A-9E523606A510}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
@@ -993,12 +996,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1006,12 +1009,17 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1023,7 +1031,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A79EFBBC-D91E-4893-86C8-C299F0E0C218}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>

--- a/Calliope_Kenya/Models/4Nodes_No-Coffee/Graph_inputs.xlsx
+++ b/Calliope_Kenya/Models/4Nodes_No-Coffee/Graph_inputs.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\GitHub\My Kenya\Calliope_Kenya\Models\4Nodes_No-Coffee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571651C4-2520-4385-A5B7-1A9E16D5D0DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9812EF-2BB6-4DEA-BE7D-655FCEC8C7F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18045" yWindow="4005" windowWidth="20460" windowHeight="10890" activeTab="2" xr2:uid="{9FB00E9D-CEB3-42BA-85F0-61134DCC4F6B}"/>
+    <workbookView xWindow="8340" yWindow="0" windowWidth="20460" windowHeight="10890" firstSheet="3" activeTab="6" xr2:uid="{9FB00E9D-CEB3-42BA-85F0-61134DCC4F6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Consumption Techs" sheetId="1" r:id="rId1"/>
     <sheet name="Nodes" sheetId="2" r:id="rId2"/>
     <sheet name="Production Techs" sheetId="3" r:id="rId3"/>
-    <sheet name="Colors" sheetId="6" r:id="rId4"/>
-    <sheet name="Transmission" sheetId="4" r:id="rId5"/>
-    <sheet name="Date" sheetId="5" r:id="rId6"/>
+    <sheet name="Col_Name" sheetId="6" r:id="rId4"/>
+    <sheet name="imp-exp" sheetId="7" r:id="rId5"/>
+    <sheet name="Transmission" sheetId="4" r:id="rId6"/>
+    <sheet name="Date" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="69">
   <si>
     <t>Tech</t>
   </si>
@@ -128,9 +129,6 @@
     <t>hvdc_220</t>
   </si>
   <si>
-    <t>day</t>
-  </si>
-  <si>
     <t>end</t>
   </si>
   <si>
@@ -236,10 +234,16 @@
     <t>2015-01-01 00:00:00'</t>
   </si>
   <si>
-    <t>2015-12-31 23:00:00'</t>
-  </si>
-  <si>
-    <t>f</t>
+    <t>Imports</t>
+  </si>
+  <si>
+    <t>Exports</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>2015-01-02 23:00:00'</t>
   </si>
 </sst>
 </file>
@@ -703,7 +707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F85C9D0-FA2D-4848-A36A-6ADC242E166E}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
@@ -788,7 +792,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,7 +814,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
@@ -821,7 +825,7 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -832,7 +836,7 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -843,7 +847,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
@@ -854,7 +858,7 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
@@ -865,7 +869,7 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
         <v>25</v>
@@ -876,7 +880,7 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
@@ -887,7 +891,7 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
@@ -895,90 +899,90 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -987,39 +991,69 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BACE794-9AA3-4644-BC5A-9E523606A510}">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{124241E6-30D3-4771-8593-7D44C13FEC16}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
-        <v>67</v>
+      <c r="B2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1028,11 +1062,47 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BACE794-9AA3-4644-BC5A-9E523606A510}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A79EFBBC-D91E-4893-86C8-C299F0E0C218}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1042,23 +1112,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Calliope_Kenya/Models/4Nodes_No-Coffee/Graph_inputs.xlsx
+++ b/Calliope_Kenya/Models/4Nodes_No-Coffee/Graph_inputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\GitHub\My Kenya\Calliope_Kenya\Models\4Nodes_No-Coffee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9812EF-2BB6-4DEA-BE7D-655FCEC8C7F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DCEECA-D146-4C37-9E56-60AB63E549E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8340" yWindow="0" windowWidth="20460" windowHeight="10890" firstSheet="3" activeTab="6" xr2:uid="{9FB00E9D-CEB3-42BA-85F0-61134DCC4F6B}"/>
+    <workbookView xWindow="1950" yWindow="1635" windowWidth="20460" windowHeight="10890" firstSheet="2" activeTab="3" xr2:uid="{9FB00E9D-CEB3-42BA-85F0-61134DCC4F6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Consumption Techs" sheetId="1" r:id="rId1"/>
@@ -102,9 +102,6 @@
     <t>Geothermal</t>
   </si>
   <si>
-    <t xml:space="preserve">Gast Turbine </t>
-  </si>
-  <si>
     <t>Heavy Fuel Oil</t>
   </si>
   <si>
@@ -244,6 +241,9 @@
   </si>
   <si>
     <t>2015-01-02 23:00:00'</t>
+  </si>
+  <si>
+    <t>Gas Turbine</t>
   </si>
 </sst>
 </file>
@@ -791,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF150A4-DE49-47F1-B3B1-E0F51365CAAD}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,10 +814,10 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -825,10 +825,10 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -836,7 +836,7 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -847,10 +847,10 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -858,10 +858,10 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -869,10 +869,10 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -880,10 +880,10 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -891,98 +891,98 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1006,10 +1006,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1017,10 +1017,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1028,10 +1028,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1039,10 +1039,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1050,10 +1050,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1081,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1089,7 +1089,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1101,7 +1101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A79EFBBC-D91E-4893-86C8-C299F0E0C218}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1112,23 +1112,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Calliope_Kenya/Models/4Nodes_No-Coffee/Graph_inputs.xlsx
+++ b/Calliope_Kenya/Models/4Nodes_No-Coffee/Graph_inputs.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\GitHub\My Kenya\Calliope_Kenya\Models\4Nodes_No-Coffee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DCEECA-D146-4C37-9E56-60AB63E549E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94519F6-1280-4B1D-9D5E-079DB543557B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1635" windowWidth="20460" windowHeight="10890" firstSheet="2" activeTab="3" xr2:uid="{9FB00E9D-CEB3-42BA-85F0-61134DCC4F6B}"/>
+    <workbookView xWindow="1950" yWindow="1635" windowWidth="20460" windowHeight="10890" activeTab="1" xr2:uid="{9FB00E9D-CEB3-42BA-85F0-61134DCC4F6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Consumption Techs" sheetId="1" r:id="rId1"/>
-    <sheet name="Nodes" sheetId="2" r:id="rId2"/>
-    <sheet name="Production Techs" sheetId="3" r:id="rId3"/>
-    <sheet name="Col_Name" sheetId="6" r:id="rId4"/>
-    <sheet name="imp-exp" sheetId="7" r:id="rId5"/>
-    <sheet name="Transmission" sheetId="4" r:id="rId6"/>
-    <sheet name="Date" sheetId="5" r:id="rId7"/>
+    <sheet name="Unit" sheetId="8" r:id="rId2"/>
+    <sheet name="Nodes" sheetId="2" r:id="rId3"/>
+    <sheet name="Production Techs" sheetId="3" r:id="rId4"/>
+    <sheet name="Col_Name" sheetId="6" r:id="rId5"/>
+    <sheet name="imp-exp" sheetId="7" r:id="rId6"/>
+    <sheet name="Transmission" sheetId="4" r:id="rId7"/>
+    <sheet name="Date" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="73">
   <si>
     <t>Tech</t>
   </si>
@@ -244,6 +245,18 @@
   </si>
   <si>
     <t>Gas Turbine</t>
+  </si>
+  <si>
+    <t>RES</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Defualt</t>
+  </si>
+  <si>
+    <t>kW</t>
   </si>
 </sst>
 </file>
@@ -652,6 +665,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E41E9946-26C4-4091-B15F-99620D2F8856}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C088BFEB-5357-40AB-A001-86E2ED77B251}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -703,12 +744,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F85C9D0-FA2D-4848-A36A-6ADC242E166E}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,68 +758,92 @@
     <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -787,12 +852,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF150A4-DE49-47F1-B3B1-E0F51365CAAD}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -990,7 +1055,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{124241E6-30D3-4771-8593-7D44C13FEC16}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -1061,7 +1126,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BACE794-9AA3-4644-BC5A-9E523606A510}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -1097,7 +1162,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A79EFBBC-D91E-4893-86C8-C299F0E0C218}">
   <dimension ref="A1:B3"/>
   <sheetViews>

--- a/Calliope_Kenya/Models/4Nodes_No-Coffee/Graph_inputs.xlsx
+++ b/Calliope_Kenya/Models/4Nodes_No-Coffee/Graph_inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\GitHub\My Kenya\Calliope_Kenya\Models\4Nodes_No-Coffee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94519F6-1280-4B1D-9D5E-079DB543557B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A509532-5B12-4714-961B-BCE81EBFFB17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1635" windowWidth="20460" windowHeight="10890" activeTab="1" xr2:uid="{9FB00E9D-CEB3-42BA-85F0-61134DCC4F6B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{9FB00E9D-CEB3-42BA-85F0-61134DCC4F6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Consumption Techs" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="78">
   <si>
     <t>Tech</t>
   </si>
@@ -257,6 +257,21 @@
   </si>
   <si>
     <t>kW</t>
+  </si>
+  <si>
+    <t>External</t>
+  </si>
+  <si>
+    <t>Wester Region</t>
+  </si>
+  <si>
+    <t>Mont Kenya Region</t>
+  </si>
+  <si>
+    <t>Nairobi Region</t>
+  </si>
+  <si>
+    <t>Coast Region</t>
   </si>
 </sst>
 </file>
@@ -668,7 +683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E41E9946-26C4-4091-B15F-99620D2F8856}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -694,49 +709,64 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C088BFEB-5357-40AB-A001-86E2ED77B251}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -854,10 +884,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF150A4-DE49-47F1-B3B1-E0F51365CAAD}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1048,6 +1078,50 @@
       </c>
       <c r="C17" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/Calliope_Kenya/Models/4Nodes_No-Coffee/Graph_inputs.xlsx
+++ b/Calliope_Kenya/Models/4Nodes_No-Coffee/Graph_inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\GitHub\My Kenya\Calliope_Kenya\Models\4Nodes_No-Coffee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A509532-5B12-4714-961B-BCE81EBFFB17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2E90B9-9DEE-427E-8537-A5B55B8DBF47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{9FB00E9D-CEB3-42BA-85F0-61134DCC4F6B}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="78">
   <si>
     <t>Tech</t>
   </si>
@@ -884,10 +884,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF150A4-DE49-47F1-B3B1-E0F51365CAAD}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1122,6 +1122,28 @@
       </c>
       <c r="C21" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Calliope_Kenya/Models/4Nodes_No-Coffee/Graph_inputs.xlsx
+++ b/Calliope_Kenya/Models/4Nodes_No-Coffee/Graph_inputs.xlsx
@@ -8,19 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\GitHub\My Kenya\Calliope_Kenya\Models\4Nodes_No-Coffee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2E90B9-9DEE-427E-8537-A5B55B8DBF47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905A1B78-57DF-4005-A558-B84EA10880E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{9FB00E9D-CEB3-42BA-85F0-61134DCC4F6B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{9FB00E9D-CEB3-42BA-85F0-61134DCC4F6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Consumption Techs" sheetId="1" r:id="rId1"/>
-    <sheet name="Unit" sheetId="8" r:id="rId2"/>
-    <sheet name="Nodes" sheetId="2" r:id="rId3"/>
-    <sheet name="Production Techs" sheetId="3" r:id="rId4"/>
-    <sheet name="Col_Name" sheetId="6" r:id="rId5"/>
-    <sheet name="imp-exp" sheetId="7" r:id="rId6"/>
-    <sheet name="Transmission" sheetId="4" r:id="rId7"/>
-    <sheet name="Date" sheetId="5" r:id="rId8"/>
+    <sheet name="Nodes" sheetId="2" r:id="rId2"/>
+    <sheet name="Production Techs" sheetId="3" r:id="rId3"/>
+    <sheet name="Col_Name" sheetId="6" r:id="rId4"/>
+    <sheet name="imp-exp" sheetId="7" r:id="rId5"/>
+    <sheet name="Transmission" sheetId="4" r:id="rId6"/>
+    <sheet name="Date" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="75">
   <si>
     <t>Tech</t>
   </si>
@@ -250,21 +249,9 @@
     <t>RES</t>
   </si>
   <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>Defualt</t>
-  </si>
-  <si>
-    <t>kW</t>
-  </si>
-  <si>
     <t>External</t>
   </si>
   <si>
-    <t>Wester Region</t>
-  </si>
-  <si>
     <t>Mont Kenya Region</t>
   </si>
   <si>
@@ -272,6 +259,9 @@
   </si>
   <si>
     <t>Coast Region</t>
+  </si>
+  <si>
+    <t>Western Region</t>
   </si>
 </sst>
 </file>
@@ -680,39 +670,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E41E9946-26C4-4091-B15F-99620D2F8856}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C088BFEB-5357-40AB-A001-86E2ED77B251}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,7 +684,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -774,7 +736,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F85C9D0-FA2D-4848-A36A-6ADC242E166E}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -882,12 +844,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF150A4-DE49-47F1-B3B1-E0F51365CAAD}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1099,7 +1061,7 @@
         <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1110,7 +1072,7 @@
         <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1121,7 +1083,7 @@
         <v>59</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1151,7 +1113,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{124241E6-30D3-4771-8593-7D44C13FEC16}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -1222,7 +1184,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BACE794-9AA3-4644-BC5A-9E523606A510}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -1258,7 +1220,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A79EFBBC-D91E-4893-86C8-C299F0E0C218}">
   <dimension ref="A1:B3"/>
   <sheetViews>

--- a/Calliope_Kenya/Models/4Nodes_No-Coffee/Graph_inputs.xlsx
+++ b/Calliope_Kenya/Models/4Nodes_No-Coffee/Graph_inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\GitHub\My Kenya\Calliope_Kenya\Models\4Nodes_No-Coffee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905A1B78-57DF-4005-A558-B84EA10880E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41345C3F-40CB-4FB9-BA79-D33034A63C66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{9FB00E9D-CEB3-42BA-85F0-61134DCC4F6B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{9FB00E9D-CEB3-42BA-85F0-61134DCC4F6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Consumption Techs" sheetId="1" r:id="rId1"/>
@@ -673,7 +673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C088BFEB-5357-40AB-A001-86E2ED77B251}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
@@ -848,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF150A4-DE49-47F1-B3B1-E0F51365CAAD}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1091,7 +1091,7 @@
         <v>64</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
         <v>64</v>
@@ -1102,7 +1102,7 @@
         <v>65</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
         <v>65</v>

--- a/Calliope_Kenya/Models/4Nodes_No-Coffee/Graph_inputs.xlsx
+++ b/Calliope_Kenya/Models/4Nodes_No-Coffee/Graph_inputs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amin\Documents\GitHub\My Kenya\Calliope_Kenya\Models\4Nodes_No-Coffee\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stevo\Repositories\CIVICS_Kenya\Calliope_Kenya\Models\4Nodes_No-Coffee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41345C3F-40CB-4FB9-BA79-D33034A63C66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C60526-E233-41ED-806F-200B6DC145AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{9FB00E9D-CEB3-42BA-85F0-61134DCC4F6B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="6" xr2:uid="{9FB00E9D-CEB3-42BA-85F0-61134DCC4F6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Consumption Techs" sheetId="1" r:id="rId1"/>
@@ -240,9 +240,6 @@
     <t>start</t>
   </si>
   <si>
-    <t>2015-01-02 23:00:00'</t>
-  </si>
-  <si>
     <t>Gas Turbine</t>
   </si>
   <si>
@@ -262,6 +259,9 @@
   </si>
   <si>
     <t>Western Region</t>
+  </si>
+  <si>
+    <t>2015-12-31 23:00:00'</t>
   </si>
 </sst>
 </file>
@@ -320,7 +320,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -336,7 +336,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -638,12 +638,12 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -652,7 +652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -677,17 +677,17 @@
       <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -720,7 +720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -744,13 +744,13 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -758,10 +758,10 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -772,7 +772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -783,7 +783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -794,7 +794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -805,7 +805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -848,17 +848,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF150A4-DE49-47F1-B3B1-E0F51365CAAD}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B1" s="4" t="s">
         <v>11</v>
       </c>
@@ -866,7 +866,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -877,7 +877,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -885,10 +885,10 @@
         <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -899,7 +899,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -910,7 +910,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -921,7 +921,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -932,7 +932,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -943,7 +943,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -954,7 +954,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>38</v>
       </c>
@@ -965,7 +965,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>39</v>
       </c>
@@ -976,7 +976,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>40</v>
       </c>
@@ -987,7 +987,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>41</v>
       </c>
@@ -998,7 +998,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>42</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>43</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>44</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>45</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>5</v>
       </c>
@@ -1050,10 +1050,10 @@
         <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
@@ -1061,10 +1061,10 @@
         <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>7</v>
       </c>
@@ -1072,10 +1072,10 @@
         <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1083,10 +1083,10 @@
         <v>59</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>64</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>65</v>
       </c>
@@ -1121,13 +1121,13 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>64</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1192,14 +1192,14 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1224,21 +1224,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A79EFBBC-D91E-4893-86C8-C299F0E0C218}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>66</v>
       </c>
@@ -1246,12 +1246,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/Calliope_Kenya/Models/4Nodes_No-Coffee/Graph_inputs.xlsx
+++ b/Calliope_Kenya/Models/4Nodes_No-Coffee/Graph_inputs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stevo\Repositories\CIVICS_Kenya\Calliope_Kenya\Models\4Nodes_No-Coffee\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\payam\Documents\GitHub\CIVICS_Kenya\Calliope_Kenya\Models\4Nodes_No-Coffee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C60526-E233-41ED-806F-200B6DC145AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8129B5E9-11B0-4EE7-8AD7-5F17D01C1572}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="6" xr2:uid="{9FB00E9D-CEB3-42BA-85F0-61134DCC4F6B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{9FB00E9D-CEB3-42BA-85F0-61134DCC4F6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Consumption Techs" sheetId="1" r:id="rId1"/>
@@ -320,7 +320,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -336,7 +336,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -638,12 +638,12 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -652,7 +652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -677,9 +677,9 @@
       <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
@@ -687,7 +687,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -720,7 +720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -741,16 +741,16 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -761,7 +761,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -772,7 +772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -783,7 +783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -794,7 +794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -805,7 +805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -848,17 +848,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF150A4-DE49-47F1-B3B1-E0F51365CAAD}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="4" t="s">
         <v>11</v>
       </c>
@@ -866,7 +866,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -877,7 +877,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -888,7 +888,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -899,7 +899,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -910,7 +910,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -921,7 +921,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -932,7 +932,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -943,7 +943,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -954,7 +954,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>38</v>
       </c>
@@ -965,7 +965,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>39</v>
       </c>
@@ -976,7 +976,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>40</v>
       </c>
@@ -987,7 +987,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>41</v>
       </c>
@@ -998,7 +998,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>42</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>43</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>44</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>45</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>5</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>6</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>7</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1086,18 +1086,18 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>65</v>
       </c>
@@ -1121,13 +1121,13 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>64</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1192,14 +1192,14 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1224,21 +1224,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A79EFBBC-D91E-4893-86C8-C299F0E0C218}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>66</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
